--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="133">
   <si>
     <t>case_id</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>正常新增项目</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10002","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
     <t>输入错误的密码</t>
@@ -422,10 +425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -470,6 +473,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -477,25 +487,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,30 +537,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,21 +555,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,7 +609,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,22 +622,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -626,6 +629,156 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -635,25 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,151 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,6 +879,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -894,7 +927,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,50 +949,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,151 +966,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1752,7 +1755,7 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C3" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C3" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -2666,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2725,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>35</v>
@@ -2739,22 +2742,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2771,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -2791,16 +2794,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -2824,8 +2827,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2903,13 +2906,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2918,13 +2921,13 @@
         <v>10001</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="31.95" customHeight="1" spans="1:9">
@@ -2932,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2947,7 +2950,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -2959,13 +2962,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2974,7 +2977,7 @@
         <v>20104</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -2986,13 +2989,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3013,13 +3016,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -3028,7 +3031,7 @@
         <v>20116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -3040,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -3055,7 +3058,7 @@
         <v>20117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -3067,13 +3070,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -3082,7 +3085,7 @@
         <v>20117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>

--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -333,9 +333,6 @@
     <t>正常新增项目</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10002","data":null,"msg":"登录成功"}</t>
-  </si>
-  <si>
     <t>输入错误的密码</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20112","data":null,"msg":"用户名或密码错误"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
@@ -425,8 +425,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -480,16 +480,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,17 +523,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,9 +555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,17 +570,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,11 +593,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,28 +616,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -629,6 +629,90 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -638,7 +722,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,169 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,17 +878,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,6 +917,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -918,30 +951,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -966,160 +975,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2670,7 +2670,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2728,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>35</v>
@@ -2742,19 +2742,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>108</v>
@@ -2803,7 +2803,7 @@
         <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>

--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="132">
   <si>
     <t>case_id</t>
   </si>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20112","data":null,"msg":"用户名或密码错误"}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
@@ -425,8 +422,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -473,29 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,9 +498,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,6 +525,58 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,23 +596,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,44 +619,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -629,6 +626,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -638,7 +665,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,25 +743,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,139 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,21 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -919,9 +901,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,6 +925,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -955,171 +972,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2670,7 +2667,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2757,7 +2754,7 @@
         <v>107</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2774,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -2794,13 +2791,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>106</v>
@@ -2906,13 +2903,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2921,13 +2918,13 @@
         <v>10001</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" ht="31.95" customHeight="1" spans="1:9">
@@ -2935,13 +2932,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2950,7 +2947,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -2962,13 +2959,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2977,7 +2974,7 @@
         <v>20104</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -2989,13 +2986,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3016,13 +3013,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -3031,7 +3028,7 @@
         <v>20116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -3043,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -3058,7 +3055,7 @@
         <v>20117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -3070,13 +3067,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -3085,7 +3082,7 @@
         <v>20117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>

--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="133">
   <si>
     <t>case_id</t>
   </si>
@@ -333,6 +333,9 @@
     <t>正常新增项目</t>
   </si>
   <si>
+    <t>{"status":1,"code":"1001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
     <t>输入错误的密码</t>
   </si>
   <si>
@@ -363,7 +366,7 @@
     <t>{"mobilephone":"#login_phone#", "amount": "10"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":465,"regname":"小麻花","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15283312745","leaveamount":"-180.00","type":"1","regtime":"2019-05-03 01:50:02.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":465,"regname":"小麻花","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15283312745","leaveamount":"-6570.00","type":"1","regtime":"2019-05-03 01:50:02.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{"sql":"select leaveamount from future.member where mobilephone='15283312745'"}</t>
@@ -422,10 +425,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -470,7 +473,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,30 +552,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,58 +572,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,6 +591,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -605,18 +616,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -629,7 +632,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,7 +758,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,163 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,15 +878,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -911,16 +905,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,164 +962,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="11">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2419,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -2445,7 +2448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -2666,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2725,7 +2728,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>35</v>
@@ -2739,22 +2742,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2771,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -2791,16 +2794,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -2903,13 +2906,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2918,13 +2921,13 @@
         <v>10001</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="31.95" customHeight="1" spans="1:9">
@@ -2932,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2947,7 +2950,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -2959,13 +2962,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2974,7 +2977,7 @@
         <v>20104</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -2986,13 +2989,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3013,13 +3016,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -3028,7 +3031,7 @@
         <v>20116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -3040,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -3055,7 +3058,7 @@
         <v>20117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -3067,13 +3070,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -3082,7 +3085,7 @@
         <v>20117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>

--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="132">
   <si>
     <t>case_id</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>正常新增项目</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"1001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
     <t>输入错误的密码</t>
@@ -473,16 +470,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,7 +492,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,60 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,6 +528,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -591,9 +581,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,19 +614,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -629,6 +626,102 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -638,31 +731,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +749,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,133 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +875,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -918,73 +972,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
@@ -993,133 +990,133 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="11">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2669,8 +2666,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2728,7 +2725,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>35</v>
@@ -2742,22 +2739,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2774,7 +2771,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -2794,16 +2791,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -2906,13 +2903,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2921,13 +2918,13 @@
         <v>10001</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" ht="31.95" customHeight="1" spans="1:9">
@@ -2935,13 +2932,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2950,7 +2947,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>13</v>
@@ -2962,13 +2959,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2977,7 +2974,7 @@
         <v>20104</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -2989,13 +2986,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3016,13 +3013,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -3031,7 +3028,7 @@
         <v>20116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -3043,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -3058,7 +3055,7 @@
         <v>20117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -3070,13 +3067,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -3085,7 +3082,7 @@
         <v>20117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>

--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>case_id</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>正常新增项目</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10002","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -425,9 +428,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -479,11 +482,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,8 +503,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,9 +557,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,37 +566,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,8 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,15 +605,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,11 +618,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,13 +635,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,19 +779,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,144 +816,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +899,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -921,202 +978,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
@@ -2670,7 +2673,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2728,13 +2731,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="20.4" customHeight="1" spans="1:8">
@@ -2742,22 +2745,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2774,7 +2777,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -2794,16 +2797,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
@@ -2906,13 +2909,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2921,13 +2924,13 @@
         <v>10001</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="31.95" customHeight="1" spans="1:9">
@@ -2935,13 +2938,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2950,7 +2953,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
@@ -2962,13 +2965,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2977,7 +2980,7 @@
         <v>20104</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>13</v>
@@ -2989,13 +2992,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3016,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -3031,7 +3034,7 @@
         <v>20116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -3043,13 +3046,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -3058,7 +3061,7 @@
         <v>20117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -3070,13 +3073,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -3085,7 +3088,7 @@
         <v>20117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>

--- a/API_prac/data/cases02.xlsx
+++ b/API_prac/data/cases02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>case_id</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>正常新增项目</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10002","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -429,8 +426,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -489,22 +486,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -519,24 +510,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,10 +547,42 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,9 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,42 +615,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,7 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +644,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,127 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,19 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,61 +891,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +913,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -978,148 +960,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
@@ -2673,7 +2670,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="114" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2731,13 +2728,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="20.4" customHeight="1" spans="1:8">
@@ -2745,22 +2742,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -2777,7 +2774,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -2797,16 +2794,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
@@ -2909,13 +2906,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -2924,13 +2921,13 @@
         <v>10001</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" ht="31.95" customHeight="1" spans="1:9">
@@ -2938,13 +2935,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -2953,7 +2950,7 @@
         <v>20115</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
@@ -2965,13 +2962,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -2980,7 +2977,7 @@
         <v>20104</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>13</v>
@@ -2992,13 +2989,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -3019,13 +3016,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -3034,7 +3031,7 @@
         <v>20116</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>13</v>
@@ -3046,13 +3043,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -3061,7 +3058,7 @@
         <v>20117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>13</v>
@@ -3073,13 +3070,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -3088,7 +3085,7 @@
         <v>20117</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>13</v>
